--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1145005.399607612</v>
+        <v>1142187.116582701</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4129894.093151574</v>
+        <v>4129894.093151568</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5119633.367422727</v>
+        <v>5119633.367422729</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>325.9247528342851</v>
+        <v>331.818267627199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.71459028122914</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>214.5700598743327</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>370.3364559279933</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -946,7 +946,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.673470249650551</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.41575905587279</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5303495308755</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>281.4357280687247</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.0979994320103</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>83.11874939662448</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -1539,13 +1539,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>146.1015596757018</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.263405521906013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>305.6096491809498</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>144.8941679681652</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.84804004782286</v>
+        <v>178.4848821500405</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3029221927327</v>
@@ -1788,7 +1788,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124.9062923885789</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1858,13 +1858,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>108.1134362274253</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.9908812904515</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1353559624811</v>
+        <v>33.04541193591325</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1909,10 +1909,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I18" t="n">
-        <v>35.11258709443408</v>
+        <v>35.11258709443409</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>93.16657843099117</v>
       </c>
       <c r="C19" t="n">
-        <v>88.95619633713615</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5661004360929</v>
@@ -2064,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8378661493493</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>142.9228569989392</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2180,7 +2180,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I21" t="n">
-        <v>35.11258709443408</v>
+        <v>35.11258709443409</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>60.61551504955689</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.2359509470872</v>
@@ -2259,7 +2259,7 @@
         <v>150.9403106068158</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.6293582556808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2329,13 +2329,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>408.2830491160485</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>299.4431185470848</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>126.6632075529182</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U23" t="n">
         <v>253.1353559624811</v>
@@ -2380,7 +2380,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2417,7 +2417,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I24" t="n">
-        <v>35.11258709443408</v>
+        <v>35.1125870944341</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>166.1232936014081</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.2359509470872</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>56.23507378873048</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>344.1229508628353</v>
       </c>
       <c r="G26" t="n">
         <v>408.2830491160485</v>
@@ -2575,7 +2575,7 @@
         <v>313.180957500541</v>
       </c>
       <c r="I26" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>217.9908812904515</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>117.660240616395</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I27" t="n">
-        <v>35.11258709443408</v>
+        <v>35.1125870944341</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.78465243109362</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>231.9280946334754</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.9139119531125</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>224.3399616058144</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2845,10 +2845,10 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T29" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.349080315363921</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2891,7 +2891,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I30" t="n">
-        <v>35.11258709443408</v>
+        <v>35.1125870944341</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.53994910220187</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>194.9399852654295</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>141.4245158868448</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>133.1974975175119</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3046,10 +3046,10 @@
         <v>408.2830491160485</v>
       </c>
       <c r="H32" t="n">
-        <v>249.7304254872708</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3128,7 +3128,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I33" t="n">
-        <v>35.11258709443408</v>
+        <v>35.1125870944341</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3201,13 +3201,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2359509470872</v>
+        <v>27.16336878579802</v>
       </c>
       <c r="H34" t="n">
         <v>150.9403106068158</v>
       </c>
       <c r="I34" t="n">
-        <v>62.35680856017972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>37.58907395944289</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>108.8704376955212</v>
       </c>
       <c r="I35" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U35" t="n">
         <v>253.1353559624811</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>4.404910017436459</v>
       </c>
       <c r="D37" t="n">
-        <v>94.76138639048354</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -3438,13 +3438,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>306.503854143472</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.2830491160485</v>
+        <v>398.8378661493489</v>
       </c>
       <c r="H38" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.2359509470872</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.35713390156701</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T40" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>13.11657216188664</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>318.6092597992969</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>316.5487336740566</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>19.99908653323905</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -3915,7 +3915,7 @@
         <v>166.2359509470872</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.27226767242901</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>23.29944187446577</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>209.1639765697977</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>78.66816119209911</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>278.5626850406781</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.670136571905</v>
+        <v>542.7964402104908</v>
       </c>
       <c r="C2" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>371.4442765563895</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362701</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362701</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362701</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.655591362701</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.655591362701</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y2" t="n">
-        <v>1931.164882283302</v>
+        <v>943.2911859218877</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M3" t="n">
-        <v>745.925957327873</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1331.423962334475</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.944244925456</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2253.565613641853</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544164</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>663.3212008849971</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>397.3418557058213</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W4" t="n">
-        <v>397.3418557058213</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X4" t="n">
-        <v>163.2615334888044</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.2615334888044</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8496666907658</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="C5" t="n">
-        <v>568.8496666907658</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D5" t="n">
-        <v>568.8496666907658</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E5" t="n">
-        <v>568.8496666907658</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F5" t="n">
-        <v>194.7724384806715</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
@@ -4573,46 +4573,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>846.5749518677998</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2071.9028617973</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>1729.796052500818</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W5" t="n">
-        <v>1358.797017469106</v>
+        <v>1534.390271706639</v>
       </c>
       <c r="X5" t="n">
-        <v>969.3444124021627</v>
+        <v>1144.937666639696</v>
       </c>
       <c r="Y5" t="n">
-        <v>969.3444124021627</v>
+        <v>748.4469575602968</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.9460831990288</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="C7" t="n">
-        <v>202.9460831990288</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>509.8707784334763</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>509.8707784334763</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>341.6167245329218</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>186.1381734944158</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>53.04374813149366</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4758,19 +4758,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>926.1178117785781</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>660.1384665994024</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>660.1384665994024</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X7" t="n">
-        <v>426.0581443823855</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.9460831990288</v>
+        <v>665.4295905742738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2104.154988922118</v>
+        <v>895.945390151426</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>895.945390151426</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922118</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922118</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.154988922118</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.154988922118</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2104.154988922118</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y8" t="n">
-        <v>2104.154988922118</v>
+        <v>895.945390151426</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
@@ -4889,19 +4889,19 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1960.027136360782</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4998,16 +4998,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>787.8357555707396</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>504.5053535019172</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154359</v>
+        <v>862.4544242981306</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154359</v>
+        <v>862.4544242981306</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154359</v>
+        <v>862.4544242981306</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>459.8708994146751</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>459.8708994146751</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>242.2750666411636</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>676.6625536667298</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L11" t="n">
-        <v>1262.160558673332</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M11" t="n">
-        <v>1346.719042301713</v>
+        <v>557.9407404960273</v>
       </c>
       <c r="N11" t="n">
-        <v>1932.217047308315</v>
+        <v>1143.438745502629</v>
       </c>
       <c r="O11" t="n">
-        <v>1932.217047308315</v>
+        <v>1683.356819045779</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2116.788276814643</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2212.917427024875</v>
+        <v>2212.917427024876</v>
       </c>
       <c r="T11" t="n">
-        <v>1992.064451269825</v>
+        <v>1992.064451269826</v>
       </c>
       <c r="U11" t="n">
-        <v>1736.360107800333</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="V11" t="n">
-        <v>1394.253298503851</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="W11" t="n">
-        <v>1023.254263472139</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="X11" t="n">
-        <v>633.8016584051953</v>
+        <v>1346.907502733391</v>
       </c>
       <c r="Y11" t="n">
-        <v>237.3109493257965</v>
+        <v>1262.949170009528</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>170.7303895780879</v>
       </c>
       <c r="H12" t="n">
-        <v>85.55836976701916</v>
+        <v>85.55836976701917</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>190.3936276018482</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>561.3488855811172</v>
       </c>
       <c r="L12" t="n">
-        <v>599.7454389330993</v>
+        <v>561.3488855811172</v>
       </c>
       <c r="M12" t="n">
-        <v>1185.243443939701</v>
+        <v>561.3488855811172</v>
       </c>
       <c r="N12" t="n">
-        <v>1738.13080615708</v>
+        <v>1146.846890587719</v>
       </c>
       <c r="O12" t="n">
-        <v>2323.628811163682</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.628811163682</v>
+        <v>2048.777158475793</v>
       </c>
       <c r="Q12" t="n">
         <v>2323.628811163682</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1007.08510771368</v>
+        <v>526.4876450294553</v>
       </c>
       <c r="C13" t="n">
-        <v>836.8799897796691</v>
+        <v>526.4876450294553</v>
       </c>
       <c r="D13" t="n">
-        <v>681.2468766821839</v>
+        <v>370.8545319319701</v>
       </c>
       <c r="E13" t="n">
-        <v>525.6880645413864</v>
+        <v>215.2957197911726</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3621297543593</v>
+        <v>215.2957197911726</v>
       </c>
       <c r="G13" t="n">
-        <v>200.3793800647304</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>160.0413674487276</v>
@@ -5232,19 +5232,19 @@
         <v>1193.569293598826</v>
       </c>
       <c r="U13" t="n">
-        <v>1193.569293598826</v>
+        <v>908.1453002522317</v>
       </c>
       <c r="V13" t="n">
-        <v>1193.569293598826</v>
+        <v>760.5679672464722</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.569293598826</v>
+        <v>760.5679672464722</v>
       </c>
       <c r="X13" t="n">
-        <v>1193.569293598826</v>
+        <v>526.4876450294553</v>
       </c>
       <c r="Y13" t="n">
-        <v>1192.293126404981</v>
+        <v>526.4876450294553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.663050286384</v>
+        <v>1247.895553081463</v>
       </c>
       <c r="C14" t="n">
-        <v>1175.487548789314</v>
+        <v>1247.895553081463</v>
       </c>
       <c r="D14" t="n">
-        <v>1175.487548789314</v>
+        <v>862.4544242981306</v>
       </c>
       <c r="E14" t="n">
-        <v>772.9040239058586</v>
+        <v>459.8708994146751</v>
       </c>
       <c r="F14" t="n">
-        <v>356.0095854358364</v>
+        <v>459.8708994146751</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>242.2750666411637</v>
       </c>
       <c r="K14" t="n">
-        <v>481.7004571271097</v>
+        <v>676.6625536667298</v>
       </c>
       <c r="L14" t="n">
-        <v>1067.198462133712</v>
+        <v>676.6625536667298</v>
       </c>
       <c r="M14" t="n">
-        <v>1067.198462133712</v>
+        <v>1262.160558673332</v>
       </c>
       <c r="N14" t="n">
-        <v>1652.696467140314</v>
+        <v>1847.658563679934</v>
       </c>
       <c r="O14" t="n">
-        <v>1683.356819045778</v>
+        <v>1932.217047308316</v>
       </c>
       <c r="P14" t="n">
-        <v>2116.788276814642</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2212.917427024876</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1992.064451269826</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1394.253298503852</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1247.895553081463</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1247.895553081463</v>
       </c>
       <c r="Y14" t="n">
-        <v>1969.157795997781</v>
+        <v>1247.895553081463</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>170.7303895780879</v>
       </c>
       <c r="H15" t="n">
-        <v>85.55836976701916</v>
+        <v>85.55836976701917</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>190.3936276018482</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>190.3936276018482</v>
       </c>
       <c r="L15" t="n">
-        <v>599.7454389330993</v>
+        <v>742.826096433404</v>
       </c>
       <c r="M15" t="n">
-        <v>1185.243443939701</v>
+        <v>997.092092799506</v>
       </c>
       <c r="N15" t="n">
-        <v>1271.943745487395</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="O15" t="n">
-        <v>1857.441750493997</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.628811163682</v>
+        <v>2048.777158475793</v>
       </c>
       <c r="Q15" t="n">
         <v>2323.628811163682</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1143.217737994964</v>
+        <v>493.2976975741771</v>
       </c>
       <c r="C16" t="n">
-        <v>973.0126200609534</v>
+        <v>493.2976975741771</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3795069634682</v>
+        <v>493.2976975741771</v>
       </c>
       <c r="E16" t="n">
-        <v>661.8206948226707</v>
+        <v>493.2976975741771</v>
       </c>
       <c r="F16" t="n">
-        <v>504.4947600356437</v>
+        <v>493.2976975741771</v>
       </c>
       <c r="G16" t="n">
-        <v>336.5120103460147</v>
+        <v>325.3149478845481</v>
       </c>
       <c r="H16" t="n">
-        <v>183.445600382828</v>
+        <v>172.2485379213613</v>
       </c>
       <c r="I16" t="n">
-        <v>58.51003256301026</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>160.0413674487276</v>
@@ -5466,22 +5466,22 @@
         <v>1193.569293598826</v>
       </c>
       <c r="T16" t="n">
-        <v>1193.569293598826</v>
+        <v>959.0094506682868</v>
       </c>
       <c r="U16" t="n">
-        <v>1193.569293598826</v>
+        <v>673.5854573216927</v>
       </c>
       <c r="V16" t="n">
-        <v>1193.569293598826</v>
+        <v>673.5854573216927</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.569293598826</v>
+        <v>673.5854573216927</v>
       </c>
       <c r="X16" t="n">
-        <v>1193.569293598826</v>
+        <v>673.5854573216927</v>
       </c>
       <c r="Y16" t="n">
-        <v>1193.569293598826</v>
+        <v>673.5854573216927</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2515.653750062404</v>
+        <v>1677.696737088651</v>
       </c>
       <c r="C17" t="n">
-        <v>2122.478248565334</v>
+        <v>1284.521235591581</v>
       </c>
       <c r="D17" t="n">
-        <v>1737.037119782002</v>
+        <v>899.0801068082492</v>
       </c>
       <c r="E17" t="n">
-        <v>1334.453594898546</v>
+        <v>496.4965819247937</v>
       </c>
       <c r="F17" t="n">
-        <v>917.5591564285239</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="G17" t="n">
-        <v>505.1520361092829</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H17" t="n">
-        <v>188.8076345935849</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I17" t="n">
         <v>79.60214345477146</v>
       </c>
       <c r="J17" t="n">
-        <v>287.1092503151863</v>
+        <v>287.1092503151862</v>
       </c>
       <c r="K17" t="n">
-        <v>740.2984558531753</v>
+        <v>740.2984558531754</v>
       </c>
       <c r="L17" t="n">
         <v>1350.490674728982</v>
@@ -5530,7 +5530,7 @@
         <v>2686.492158171468</v>
       </c>
       <c r="O17" t="n">
-        <v>3251.314199168487</v>
+        <v>3251.314199168486</v>
       </c>
       <c r="P17" t="n">
         <v>3706.000616985577</v>
@@ -5542,25 +5542,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S17" t="n">
-        <v>3830.812654634549</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T17" t="n">
         <v>3610.619845250254</v>
       </c>
       <c r="U17" t="n">
-        <v>3354.927566500273</v>
+        <v>3577.240641274584</v>
       </c>
       <c r="V17" t="n">
-        <v>3012.820757203792</v>
+        <v>3235.133831978103</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.821722172079</v>
+        <v>2864.13479694639</v>
       </c>
       <c r="X17" t="n">
-        <v>2641.821722172079</v>
+        <v>2474.682191879447</v>
       </c>
       <c r="Y17" t="n">
-        <v>2641.821722172079</v>
+        <v>2078.191482800048</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J18" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K18" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L18" t="n">
-        <v>649.2059417401827</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M18" t="n">
-        <v>976.9890660075722</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N18" t="n">
-        <v>1735.826330357057</v>
+        <v>1210.963545555389</v>
       </c>
       <c r="O18" t="n">
-        <v>2346.62573190295</v>
+        <v>1580.39037751544</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.62573190295</v>
+        <v>2061.679050987104</v>
       </c>
       <c r="Q18" t="n">
         <v>2346.62573190295</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.4568872296565</v>
+        <v>358.0621718947684</v>
       </c>
       <c r="C19" t="n">
-        <v>79.60214345477146</v>
+        <v>358.0621718947684</v>
       </c>
       <c r="D19" t="n">
-        <v>79.60214345477146</v>
+        <v>358.0621718947684</v>
       </c>
       <c r="E19" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="F19" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="G19" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="H19" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I19" t="n">
         <v>79.60214345477146</v>
@@ -5676,16 +5676,16 @@
         <v>79.60214345477146</v>
       </c>
       <c r="K19" t="n">
-        <v>200.0335734761013</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L19" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M19" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N19" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O19" t="n">
         <v>1095.604825593285</v>
@@ -5697,28 +5697,28 @@
         <v>1286.899877594367</v>
       </c>
       <c r="R19" t="n">
-        <v>1178.239399723066</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="S19" t="n">
-        <v>1178.239399723066</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T19" t="n">
-        <v>943.9685970629897</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="U19" t="n">
-        <v>658.5482935921889</v>
+        <v>1001.479574123566</v>
       </c>
       <c r="V19" t="n">
-        <v>392.5689484130131</v>
+        <v>735.50022894439</v>
       </c>
       <c r="W19" t="n">
-        <v>392.5689484130131</v>
+        <v>452.1698268755676</v>
       </c>
       <c r="X19" t="n">
-        <v>392.5689484130131</v>
+        <v>452.1698268755676</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.4568872296565</v>
+        <v>452.1698268755676</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.56326855264</v>
+        <v>1786.902228227465</v>
       </c>
       <c r="C20" t="n">
-        <v>1687.387767055571</v>
+        <v>1393.726726730395</v>
       </c>
       <c r="D20" t="n">
-        <v>1301.946638272238</v>
+        <v>1008.285597947063</v>
       </c>
       <c r="E20" t="n">
-        <v>899.3631133887829</v>
+        <v>605.7020730636073</v>
       </c>
       <c r="F20" t="n">
-        <v>482.4686749187607</v>
+        <v>188.807634593585</v>
       </c>
       <c r="G20" t="n">
-        <v>79.60214345477146</v>
+        <v>188.807634593585</v>
       </c>
       <c r="H20" t="n">
-        <v>79.60214345477146</v>
+        <v>188.807634593585</v>
       </c>
       <c r="I20" t="n">
         <v>79.60214345477146</v>
       </c>
       <c r="J20" t="n">
-        <v>287.1092503151861</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K20" t="n">
-        <v>740.2984558531754</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L20" t="n">
         <v>1350.490674728982</v>
       </c>
       <c r="M20" t="n">
-        <v>2026.534112545566</v>
+        <v>2026.534112545565</v>
       </c>
       <c r="N20" t="n">
-        <v>2686.492158171469</v>
+        <v>2686.492158171468</v>
       </c>
       <c r="O20" t="n">
-        <v>3251.314199168487</v>
+        <v>3251.314199168486</v>
       </c>
       <c r="P20" t="n">
         <v>3706.000616985577</v>
@@ -5779,25 +5779,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S20" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T20" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="U20" t="n">
-        <v>3980.107172738573</v>
+        <v>3686.446132413398</v>
       </c>
       <c r="V20" t="n">
-        <v>3638.000363442092</v>
+        <v>3344.339323116916</v>
       </c>
       <c r="W20" t="n">
-        <v>3267.001328410379</v>
+        <v>2973.340288085204</v>
       </c>
       <c r="X20" t="n">
-        <v>2877.548723343436</v>
+        <v>2583.88768301826</v>
       </c>
       <c r="Y20" t="n">
-        <v>2481.058014264037</v>
+        <v>2187.396973938861</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>649.2059417401827</v>
       </c>
       <c r="M21" t="n">
-        <v>1377.379543585885</v>
+        <v>976.9890660075723</v>
       </c>
       <c r="N21" t="n">
         <v>1735.826330357057</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.9822056304311</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="C22" t="n">
-        <v>399.9822056304311</v>
+        <v>991.4012819549403</v>
       </c>
       <c r="D22" t="n">
-        <v>399.9822056304311</v>
+        <v>835.7681688574551</v>
       </c>
       <c r="E22" t="n">
-        <v>399.9822056304311</v>
+        <v>680.2093567166576</v>
       </c>
       <c r="F22" t="n">
-        <v>399.9822056304311</v>
+        <v>522.8834219296306</v>
       </c>
       <c r="G22" t="n">
-        <v>232.0671036636763</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="H22" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I22" t="n">
         <v>79.60214345477146</v>
@@ -5916,13 +5916,13 @@
         <v>200.0335734761012</v>
       </c>
       <c r="L22" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M22" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N22" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O22" t="n">
         <v>1095.604825593285</v>
@@ -5940,22 +5940,22 @@
         <v>1286.899877594367</v>
       </c>
       <c r="T22" t="n">
-        <v>1286.899877594367</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="U22" t="n">
-        <v>1001.479574123566</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="V22" t="n">
-        <v>1001.479574123566</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="W22" t="n">
-        <v>718.1491720547433</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="X22" t="n">
-        <v>718.1491720547433</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="Y22" t="n">
-        <v>585.1902243217323</v>
+        <v>1052.629074934291</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1696.928355910822</v>
+        <v>1975.677215450077</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.928355910822</v>
+        <v>1582.501713953007</v>
       </c>
       <c r="D23" t="n">
-        <v>1311.48722712749</v>
+        <v>1197.060585169675</v>
       </c>
       <c r="E23" t="n">
-        <v>908.9037022440347</v>
+        <v>794.4770602862193</v>
       </c>
       <c r="F23" t="n">
-        <v>492.0092637740124</v>
+        <v>794.4770602862193</v>
       </c>
       <c r="G23" t="n">
-        <v>79.60214345477146</v>
+        <v>382.0699399669783</v>
       </c>
       <c r="H23" t="n">
         <v>79.60214345477146</v>
@@ -5989,10 +5989,10 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J23" t="n">
-        <v>287.1092503151862</v>
+        <v>287.1092503151863</v>
       </c>
       <c r="K23" t="n">
-        <v>740.2984558531755</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L23" t="n">
         <v>1350.490674728982</v>
@@ -6016,25 +6016,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S23" t="n">
-        <v>3852.164538846737</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="T23" t="n">
-        <v>3852.164538846737</v>
+        <v>3759.914363354279</v>
       </c>
       <c r="U23" t="n">
-        <v>3596.472260096756</v>
+        <v>3504.222084604297</v>
       </c>
       <c r="V23" t="n">
-        <v>3254.365450800274</v>
+        <v>3162.115275307816</v>
       </c>
       <c r="W23" t="n">
-        <v>2883.366415768562</v>
+        <v>3162.115275307816</v>
       </c>
       <c r="X23" t="n">
-        <v>2493.913810701618</v>
+        <v>2772.662670240873</v>
       </c>
       <c r="Y23" t="n">
-        <v>2097.423101622219</v>
+        <v>2376.171961161474</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J24" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K24" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664748</v>
       </c>
       <c r="L24" t="n">
-        <v>79.60214345477146</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M24" t="n">
-        <v>807.7757453004738</v>
+        <v>1235.996755472092</v>
       </c>
       <c r="N24" t="n">
-        <v>1566.613009649959</v>
+        <v>1254.537656885393</v>
       </c>
       <c r="O24" t="n">
-        <v>2177.412411195851</v>
+        <v>1865.337058431286</v>
       </c>
       <c r="P24" t="n">
         <v>2346.62573190295</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.5172454215262</v>
+        <v>835.7681688574551</v>
       </c>
       <c r="C25" t="n">
-        <v>247.5172454215262</v>
+        <v>835.7681688574551</v>
       </c>
       <c r="D25" t="n">
-        <v>247.5172454215262</v>
+        <v>835.7681688574551</v>
       </c>
       <c r="E25" t="n">
-        <v>247.5172454215262</v>
+        <v>680.2093567166576</v>
       </c>
       <c r="F25" t="n">
-        <v>247.5172454215262</v>
+        <v>522.8834219296306</v>
       </c>
       <c r="G25" t="n">
-        <v>79.60214345477146</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="H25" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I25" t="n">
         <v>79.60214345477146</v>
@@ -6153,13 +6153,13 @@
         <v>200.0335734761012</v>
       </c>
       <c r="L25" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M25" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362008</v>
       </c>
       <c r="N25" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711183</v>
       </c>
       <c r="O25" t="n">
         <v>1095.604825593285</v>
@@ -6168,31 +6168,31 @@
         <v>1255.659892627853</v>
       </c>
       <c r="Q25" t="n">
-        <v>1286.899877594367</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="R25" t="n">
-        <v>1230.096772757265</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="S25" t="n">
-        <v>1033.187696731579</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="T25" t="n">
-        <v>798.9168940715028</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="U25" t="n">
-        <v>513.496590600702</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="V25" t="n">
-        <v>247.5172454215262</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="W25" t="n">
-        <v>247.5172454215262</v>
+        <v>1003.569475525544</v>
       </c>
       <c r="X25" t="n">
-        <v>247.5172454215262</v>
+        <v>1003.569475525544</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.5172454215262</v>
+        <v>1003.569475525544</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2122.478248565334</v>
+        <v>2053.182750360802</v>
       </c>
       <c r="C26" t="n">
-        <v>2122.478248565334</v>
+        <v>2053.182750360802</v>
       </c>
       <c r="D26" t="n">
-        <v>1737.037119782002</v>
+        <v>1667.74162157747</v>
       </c>
       <c r="E26" t="n">
-        <v>1334.453594898546</v>
+        <v>1265.158096694014</v>
       </c>
       <c r="F26" t="n">
         <v>917.5591564285239</v>
@@ -6223,55 +6223,55 @@
         <v>188.807634593585</v>
       </c>
       <c r="I26" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="J26" t="n">
-        <v>287.1092503151861</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K26" t="n">
-        <v>740.2984558531754</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L26" t="n">
-        <v>1350.490674728982</v>
+        <v>1350.490674728981</v>
       </c>
       <c r="M26" t="n">
-        <v>2026.534112545565</v>
+        <v>2026.534112545564</v>
       </c>
       <c r="N26" t="n">
         <v>2686.492158171468</v>
       </c>
       <c r="O26" t="n">
-        <v>3251.314199168486</v>
+        <v>3251.314199168485</v>
       </c>
       <c r="P26" t="n">
-        <v>3706.000616985577</v>
+        <v>3706.000616985576</v>
       </c>
       <c r="Q26" t="n">
-        <v>3970.822435059802</v>
+        <v>3970.822435059801</v>
       </c>
       <c r="R26" t="n">
-        <v>3980.107172738573</v>
+        <v>3980.107172738572</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.812654634549</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T26" t="n">
         <v>3610.619845250254</v>
       </c>
       <c r="U26" t="n">
-        <v>3354.927566500273</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="V26" t="n">
-        <v>3012.820757203792</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.821722172079</v>
+        <v>3239.620810218541</v>
       </c>
       <c r="X26" t="n">
-        <v>2522.972994276731</v>
+        <v>2850.168205151598</v>
       </c>
       <c r="Y26" t="n">
-        <v>2522.972994276731</v>
+        <v>2453.677496072199</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>115.069403146119</v>
       </c>
       <c r="I27" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="J27" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="K27" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="L27" t="n">
-        <v>486.7616911457059</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="M27" t="n">
-        <v>495.7003925359082</v>
+        <v>807.7757453004737</v>
       </c>
       <c r="N27" t="n">
-        <v>1254.537656885393</v>
+        <v>1566.613009649958</v>
       </c>
       <c r="O27" t="n">
-        <v>1865.337058431286</v>
+        <v>2177.412411195851</v>
       </c>
       <c r="P27" t="n">
         <v>2346.62573190295</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1038.705183589752</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="C28" t="n">
-        <v>868.5000656557409</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="D28" t="n">
-        <v>712.8669525582557</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="E28" t="n">
-        <v>557.3081404174582</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="F28" t="n">
-        <v>399.9822056304311</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="G28" t="n">
-        <v>232.0671036636763</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="H28" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="I28" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="J28" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="K28" t="n">
         <v>200.0335734761012</v>
       </c>
       <c r="L28" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M28" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N28" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O28" t="n">
         <v>1095.604825593285</v>
@@ -6405,31 +6405,31 @@
         <v>1255.659892627853</v>
       </c>
       <c r="Q28" t="n">
-        <v>1286.899877594367</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="R28" t="n">
-        <v>1286.899877594367</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="S28" t="n">
-        <v>1286.899877594367</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.629074934291</v>
+        <v>1052.62907493429</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.629074934291</v>
+        <v>767.2087714634893</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.629074934291</v>
+        <v>501.2294262843135</v>
       </c>
       <c r="W28" t="n">
-        <v>1052.629074934291</v>
+        <v>217.8990242154911</v>
       </c>
       <c r="X28" t="n">
-        <v>1052.629074934291</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="Y28" t="n">
-        <v>1052.629074934291</v>
+        <v>79.60214345477145</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1704.66272862456</v>
+        <v>1931.268750448615</v>
       </c>
       <c r="C29" t="n">
-        <v>1311.48722712749</v>
+        <v>1538.093248951545</v>
       </c>
       <c r="D29" t="n">
         <v>1311.48722712749</v>
@@ -6454,61 +6454,61 @@
         <v>492.0092637740124</v>
       </c>
       <c r="G29" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="H29" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="I29" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="J29" t="n">
-        <v>287.1092503151861</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K29" t="n">
-        <v>740.2984558531754</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L29" t="n">
         <v>1350.490674728982</v>
       </c>
       <c r="M29" t="n">
-        <v>2026.534112545566</v>
+        <v>2026.534112545565</v>
       </c>
       <c r="N29" t="n">
-        <v>2686.492158171469</v>
+        <v>2686.492158171468</v>
       </c>
       <c r="O29" t="n">
-        <v>3251.314199168487</v>
+        <v>3251.314199168486</v>
       </c>
       <c r="P29" t="n">
-        <v>3706.000616985578</v>
+        <v>3706.000616985577</v>
       </c>
       <c r="Q29" t="n">
-        <v>3970.822435059803</v>
+        <v>3970.822435059801</v>
       </c>
       <c r="R29" t="n">
-        <v>3980.107172738573</v>
+        <v>3980.107172738572</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.812654634549</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T29" t="n">
-        <v>3610.619845250254</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="U29" t="n">
-        <v>3604.206632810493</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="V29" t="n">
-        <v>3262.099823514011</v>
+        <v>3488.705845338066</v>
       </c>
       <c r="W29" t="n">
-        <v>2891.100788482299</v>
+        <v>3117.706810306354</v>
       </c>
       <c r="X29" t="n">
-        <v>2501.648183415356</v>
+        <v>2728.254205239411</v>
       </c>
       <c r="Y29" t="n">
-        <v>2105.157474335957</v>
+        <v>2331.763496160012</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>115.069403146119</v>
       </c>
       <c r="I30" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="J30" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K30" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664748</v>
       </c>
       <c r="L30" t="n">
-        <v>248.8154641618698</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M30" t="n">
-        <v>976.9890660075722</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N30" t="n">
-        <v>1735.826330357057</v>
+        <v>1576.710473304952</v>
       </c>
       <c r="O30" t="n">
-        <v>2346.62573190295</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q30" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R30" t="n">
         <v>2346.62573190295</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>405.4403744862675</v>
+        <v>712.8669525582557</v>
       </c>
       <c r="C31" t="n">
-        <v>235.2352565522567</v>
+        <v>712.8669525582557</v>
       </c>
       <c r="D31" t="n">
-        <v>79.60214345477146</v>
+        <v>712.8669525582557</v>
       </c>
       <c r="E31" t="n">
-        <v>79.60214345477146</v>
+        <v>557.3081404174582</v>
       </c>
       <c r="F31" t="n">
-        <v>79.60214345477146</v>
+        <v>399.9822056304311</v>
       </c>
       <c r="G31" t="n">
-        <v>79.60214345477146</v>
+        <v>232.0671036636763</v>
       </c>
       <c r="H31" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="I31" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="J31" t="n">
-        <v>79.60214345477146</v>
+        <v>79.60214345477145</v>
       </c>
       <c r="K31" t="n">
         <v>200.0335734761012</v>
       </c>
       <c r="L31" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M31" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N31" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O31" t="n">
         <v>1095.604825593285</v>
@@ -6642,31 +6642,31 @@
         <v>1255.659892627853</v>
       </c>
       <c r="Q31" t="n">
-        <v>1286.899877594367</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="R31" t="n">
-        <v>1244.940333046688</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="S31" t="n">
-        <v>1048.031257021002</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="T31" t="n">
-        <v>813.7604543609255</v>
+        <v>855.719998908604</v>
       </c>
       <c r="U31" t="n">
-        <v>813.7604543609255</v>
+        <v>855.719998908604</v>
       </c>
       <c r="V31" t="n">
-        <v>813.7604543609255</v>
+        <v>712.8669525582557</v>
       </c>
       <c r="W31" t="n">
-        <v>813.7604543609255</v>
+        <v>712.8669525582557</v>
       </c>
       <c r="X31" t="n">
-        <v>813.7604543609255</v>
+        <v>712.8669525582557</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.6483931775688</v>
+        <v>712.8669525582557</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2451.562303584353</v>
+        <v>1931.268750448615</v>
       </c>
       <c r="C32" t="n">
-        <v>2058.386802087283</v>
+        <v>1538.093248951546</v>
       </c>
       <c r="D32" t="n">
-        <v>1672.945673303951</v>
+        <v>1152.652120168214</v>
       </c>
       <c r="E32" t="n">
-        <v>1270.362148420495</v>
+        <v>1018.109193382848</v>
       </c>
       <c r="F32" t="n">
-        <v>853.4677099504732</v>
+        <v>601.2147549128259</v>
       </c>
       <c r="G32" t="n">
-        <v>441.0605896312323</v>
+        <v>188.807634593585</v>
       </c>
       <c r="H32" t="n">
         <v>188.807634593585</v>
@@ -6700,13 +6700,13 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J32" t="n">
-        <v>287.1092503151861</v>
+        <v>287.1092503151865</v>
       </c>
       <c r="K32" t="n">
-        <v>740.2984558531754</v>
+        <v>740.2984558531762</v>
       </c>
       <c r="L32" t="n">
-        <v>1350.490674728982</v>
+        <v>1350.490674728983</v>
       </c>
       <c r="M32" t="n">
         <v>2026.534112545566</v>
@@ -6718,7 +6718,7 @@
         <v>3251.314199168487</v>
       </c>
       <c r="P32" t="n">
-        <v>3706.000616985577</v>
+        <v>3706.000616985578</v>
       </c>
       <c r="Q32" t="n">
         <v>3970.822435059802</v>
@@ -6727,25 +6727,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S32" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634549</v>
       </c>
       <c r="T32" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634549</v>
       </c>
       <c r="U32" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634549</v>
       </c>
       <c r="V32" t="n">
-        <v>3638.000363442092</v>
+        <v>3488.705845338067</v>
       </c>
       <c r="W32" t="n">
-        <v>3638.000363442092</v>
+        <v>3117.706810306355</v>
       </c>
       <c r="X32" t="n">
-        <v>3248.547758375149</v>
+        <v>2728.254205239411</v>
       </c>
       <c r="Y32" t="n">
-        <v>2852.057049295749</v>
+        <v>2331.763496160012</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J33" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K33" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L33" t="n">
-        <v>79.60214345477146</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M33" t="n">
-        <v>807.7757453004738</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N33" t="n">
-        <v>1566.613009649959</v>
+        <v>1576.710473304952</v>
       </c>
       <c r="O33" t="n">
-        <v>2177.412411195851</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q33" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R33" t="n">
         <v>2346.62573190295</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3794.899154047272</v>
+        <v>572.3895968397817</v>
       </c>
       <c r="C34" t="n">
-        <v>3624.694036113261</v>
+        <v>572.3895968397817</v>
       </c>
       <c r="D34" t="n">
-        <v>3469.060923015776</v>
+        <v>572.3895968397817</v>
       </c>
       <c r="E34" t="n">
-        <v>3313.502110874978</v>
+        <v>416.8307846989842</v>
       </c>
       <c r="F34" t="n">
-        <v>3156.176176087951</v>
+        <v>259.5048499119571</v>
       </c>
       <c r="G34" t="n">
-        <v>2988.261074121196</v>
+        <v>232.0671036636763</v>
       </c>
       <c r="H34" t="n">
-        <v>2835.796113912291</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I34" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J34" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K34" t="n">
-        <v>2893.240868620308</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L34" t="n">
-        <v>3106.758598029071</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M34" t="n">
-        <v>3345.125100780408</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N34" t="n">
-        <v>3579.151433915325</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O34" t="n">
-        <v>3788.812120737492</v>
+        <v>1095.604825593285</v>
       </c>
       <c r="P34" t="n">
-        <v>3948.867187772059</v>
+        <v>1255.659892627853</v>
       </c>
       <c r="Q34" t="n">
-        <v>3980.107172738573</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="R34" t="n">
-        <v>3980.107172738573</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="S34" t="n">
-        <v>3980.107172738573</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="T34" t="n">
-        <v>3980.107172738573</v>
+        <v>855.719998908604</v>
       </c>
       <c r="U34" t="n">
-        <v>3980.107172738573</v>
+        <v>855.719998908604</v>
       </c>
       <c r="V34" t="n">
-        <v>3980.107172738573</v>
+        <v>855.719998908604</v>
       </c>
       <c r="W34" t="n">
-        <v>3980.107172738573</v>
+        <v>572.3895968397817</v>
       </c>
       <c r="X34" t="n">
-        <v>3980.107172738573</v>
+        <v>572.3895968397817</v>
       </c>
       <c r="Y34" t="n">
-        <v>3980.107172738573</v>
+        <v>572.3895968397817</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1824.870989802659</v>
+        <v>1797.490471610821</v>
       </c>
       <c r="C35" t="n">
-        <v>1431.69548830559</v>
+        <v>1404.314970113752</v>
       </c>
       <c r="D35" t="n">
-        <v>1046.254359522258</v>
+        <v>1018.87384133042</v>
       </c>
       <c r="E35" t="n">
-        <v>643.670834638802</v>
+        <v>1018.87384133042</v>
       </c>
       <c r="F35" t="n">
-        <v>226.7763961687798</v>
+        <v>601.9794028603975</v>
       </c>
       <c r="G35" t="n">
-        <v>188.807634593585</v>
+        <v>189.5722825411565</v>
       </c>
       <c r="H35" t="n">
-        <v>188.807634593585</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I35" t="n">
         <v>79.60214345477146</v>
@@ -6952,7 +6952,7 @@
         <v>2686.492158171468</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.314199168487</v>
+        <v>3251.314199168486</v>
       </c>
       <c r="P35" t="n">
         <v>3706.000616985577</v>
@@ -6964,25 +6964,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S35" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T35" t="n">
-        <v>3980.107172738573</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="U35" t="n">
-        <v>3724.414893988593</v>
+        <v>3354.927566500273</v>
       </c>
       <c r="V35" t="n">
-        <v>3382.308084692111</v>
+        <v>3354.927566500273</v>
       </c>
       <c r="W35" t="n">
-        <v>3011.309049660399</v>
+        <v>2983.928531468561</v>
       </c>
       <c r="X35" t="n">
-        <v>2621.856444593455</v>
+        <v>2594.475926401617</v>
       </c>
       <c r="Y35" t="n">
-        <v>2225.365735514056</v>
+        <v>2197.985217322218</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J36" t="n">
-        <v>79.60214345477146</v>
+        <v>230.154523160217</v>
       </c>
       <c r="K36" t="n">
-        <v>463.3277647610294</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L36" t="n">
-        <v>1032.93156304644</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M36" t="n">
-        <v>1761.105164892143</v>
+        <v>1558.169571891652</v>
       </c>
       <c r="N36" t="n">
-        <v>1779.646066305444</v>
+        <v>1576.710473304952</v>
       </c>
       <c r="O36" t="n">
-        <v>1865.337058431286</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q36" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R36" t="n">
         <v>2346.62573190295</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1101.691858903065</v>
+        <v>552.5694075380979</v>
       </c>
       <c r="C37" t="n">
-        <v>931.4867409690546</v>
+        <v>548.1200034800813</v>
       </c>
       <c r="D37" t="n">
-        <v>835.7681688574551</v>
+        <v>392.486890382596</v>
       </c>
       <c r="E37" t="n">
-        <v>680.2093567166576</v>
+        <v>236.9280782417985</v>
       </c>
       <c r="F37" t="n">
-        <v>522.8834219296306</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="G37" t="n">
-        <v>354.9683199628758</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H37" t="n">
-        <v>202.503359753971</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I37" t="n">
         <v>79.60214345477146</v>
@@ -7125,22 +7125,22 @@
         <v>1286.899877594367</v>
       </c>
       <c r="T37" t="n">
-        <v>1286.899877594367</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="U37" t="n">
-        <v>1286.899877594367</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="V37" t="n">
-        <v>1286.899877594367</v>
+        <v>786.6497297551149</v>
       </c>
       <c r="W37" t="n">
-        <v>1286.899877594367</v>
+        <v>786.6497297551149</v>
       </c>
       <c r="X37" t="n">
-        <v>1286.899877594367</v>
+        <v>552.5694075380979</v>
       </c>
       <c r="Y37" t="n">
-        <v>1286.899877594367</v>
+        <v>552.5694075380979</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2422.670077849122</v>
+        <v>2080.56326855264</v>
       </c>
       <c r="C38" t="n">
-        <v>2029.494576352052</v>
+        <v>1687.38776705557</v>
       </c>
       <c r="D38" t="n">
-        <v>1644.05344756872</v>
+        <v>1301.946638272238</v>
       </c>
       <c r="E38" t="n">
-        <v>1334.453594898546</v>
+        <v>899.3631133887825</v>
       </c>
       <c r="F38" t="n">
-        <v>917.5591564285239</v>
+        <v>482.4686749187603</v>
       </c>
       <c r="G38" t="n">
-        <v>505.152036109283</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H38" t="n">
-        <v>188.807634593585</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I38" t="n">
         <v>79.60214345477146</v>
@@ -7210,16 +7210,16 @@
         <v>3980.107172738573</v>
       </c>
       <c r="V38" t="n">
-        <v>3980.107172738573</v>
+        <v>3638.000363442091</v>
       </c>
       <c r="W38" t="n">
-        <v>3609.108137706861</v>
+        <v>3267.001328410379</v>
       </c>
       <c r="X38" t="n">
-        <v>3219.655532639918</v>
+        <v>2877.548723343436</v>
       </c>
       <c r="Y38" t="n">
-        <v>2823.164823560518</v>
+        <v>2481.058014264037</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J39" t="n">
-        <v>79.60214345477146</v>
+        <v>230.154523160217</v>
       </c>
       <c r="K39" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L39" t="n">
-        <v>79.60214345477146</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M39" t="n">
-        <v>807.7757453004738</v>
+        <v>1558.169571891652</v>
       </c>
       <c r="N39" t="n">
-        <v>1566.613009649958</v>
+        <v>1576.710473304952</v>
       </c>
       <c r="O39" t="n">
-        <v>2177.412411195851</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q39" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R39" t="n">
         <v>2346.62573190295</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.5172454215262</v>
+        <v>904.7827828773791</v>
       </c>
       <c r="C40" t="n">
-        <v>247.5172454215262</v>
+        <v>734.5776649433683</v>
       </c>
       <c r="D40" t="n">
-        <v>247.5172454215262</v>
+        <v>578.9445518458831</v>
       </c>
       <c r="E40" t="n">
-        <v>247.5172454215262</v>
+        <v>423.3857397050856</v>
       </c>
       <c r="F40" t="n">
-        <v>247.5172454215262</v>
+        <v>266.0598049180585</v>
       </c>
       <c r="G40" t="n">
-        <v>79.60214345477146</v>
+        <v>98.1447029513038</v>
       </c>
       <c r="H40" t="n">
         <v>79.60214345477146</v>
@@ -7359,25 +7359,25 @@
         <v>1286.899877594367</v>
       </c>
       <c r="S40" t="n">
-        <v>1286.899877594367</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.629074934291</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="U40" t="n">
-        <v>767.2087714634897</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="V40" t="n">
-        <v>753.9597086737052</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="W40" t="n">
-        <v>470.6293066048829</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="X40" t="n">
-        <v>470.6293066048829</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.5172454215262</v>
+        <v>1089.99080156868</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.21044521944</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="C41" t="n">
-        <v>786.0349437223708</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D41" t="n">
-        <v>786.0349437223708</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E41" t="n">
         <v>464.2074085715658</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>500.5021756395328</v>
       </c>
       <c r="L41" t="n">
-        <v>632.8109751081455</v>
+        <v>1072.033490510076</v>
       </c>
       <c r="M41" t="n">
-        <v>1218.308980114748</v>
+        <v>1072.033490510076</v>
       </c>
       <c r="N41" t="n">
-        <v>1803.806985121349</v>
+        <v>1072.033490510076</v>
       </c>
       <c r="O41" t="n">
-        <v>2356.363767398408</v>
+        <v>1636.855531507093</v>
       </c>
       <c r="P41" t="n">
-        <v>2356.363767398408</v>
+        <v>2091.541949324184</v>
       </c>
       <c r="Q41" t="n">
-        <v>2356.363767398408</v>
+        <v>2356.363767398409</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="X41" t="n">
-        <v>1976.195900010236</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="Y41" t="n">
-        <v>1579.705190930837</v>
+        <v>2045.90230944682</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>167.1729547984784</v>
       </c>
       <c r="H42" t="n">
-        <v>82.78022979289116</v>
+        <v>82.78022979289118</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L42" t="n">
-        <v>616.9167683869547</v>
+        <v>557.8425435299152</v>
       </c>
       <c r="M42" t="n">
-        <v>1202.414773393557</v>
+        <v>1143.340548536517</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.38841151588</v>
+        <v>1728.83855354312</v>
       </c>
       <c r="O42" t="n">
-        <v>1831.886416522482</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.175089994146</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="Q42" t="n">
-        <v>2313.175089994146</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="R42" t="n">
         <v>2314.336558549722</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9602222976584</v>
+        <v>525.0189670642303</v>
       </c>
       <c r="C43" t="n">
-        <v>392.7551043636477</v>
+        <v>525.0189670642303</v>
       </c>
       <c r="D43" t="n">
-        <v>392.7551043636477</v>
+        <v>525.0189670642303</v>
       </c>
       <c r="E43" t="n">
-        <v>372.5540068553254</v>
+        <v>525.0189670642303</v>
       </c>
       <c r="F43" t="n">
-        <v>215.2280720682983</v>
+        <v>367.6930322772032</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>167.7444001228733</v>
@@ -7596,25 +7596,25 @@
         <v>1254.610704241139</v>
       </c>
       <c r="S43" t="n">
-        <v>1254.610704241139</v>
+        <v>1178.578110632625</v>
       </c>
       <c r="T43" t="n">
-        <v>1254.610704241139</v>
+        <v>944.3073079725485</v>
       </c>
       <c r="U43" t="n">
-        <v>1254.610704241139</v>
+        <v>944.3073079725485</v>
       </c>
       <c r="V43" t="n">
-        <v>1254.610704241139</v>
+        <v>944.3073079725485</v>
       </c>
       <c r="W43" t="n">
-        <v>971.2803021723164</v>
+        <v>944.3073079725485</v>
       </c>
       <c r="X43" t="n">
-        <v>971.2803021723164</v>
+        <v>710.2269857555316</v>
       </c>
       <c r="Y43" t="n">
-        <v>748.1682409889597</v>
+        <v>710.2269857555316</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1228.513125265401</v>
+        <v>1173.727311584333</v>
       </c>
       <c r="C44" t="n">
-        <v>835.3376237683314</v>
+        <v>780.5518100872639</v>
       </c>
       <c r="D44" t="n">
-        <v>449.8964949849991</v>
+        <v>780.5518100872639</v>
       </c>
       <c r="E44" t="n">
-        <v>47.31297010154359</v>
+        <v>780.5518100872639</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154359</v>
+        <v>363.6573716172416</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>363.6573716172416</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>254.8200769619583</v>
       </c>
       <c r="K44" t="n">
-        <v>145.1833345615112</v>
+        <v>708.0092824999474</v>
       </c>
       <c r="L44" t="n">
-        <v>730.6813395681131</v>
+        <v>1293.50728750655</v>
       </c>
       <c r="M44" t="n">
-        <v>1316.179344574715</v>
+        <v>1780.150500070578</v>
       </c>
       <c r="N44" t="n">
-        <v>1901.677349581317</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="O44" t="n">
-        <v>1901.677349581317</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>2356.363767398408</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2356.363767398408</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>2342.113715304992</v>
+        <v>2145.455695692886</v>
       </c>
       <c r="U44" t="n">
-        <v>2342.113715304992</v>
+        <v>2145.455695692886</v>
       </c>
       <c r="V44" t="n">
-        <v>2000.00690600851</v>
+        <v>2145.455695692886</v>
       </c>
       <c r="W44" t="n">
-        <v>1629.007870976798</v>
+        <v>1774.456660661173</v>
       </c>
       <c r="X44" t="n">
-        <v>1629.007870976798</v>
+        <v>1385.00405559423</v>
       </c>
       <c r="Y44" t="n">
-        <v>1629.007870976798</v>
+        <v>1173.727311584333</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>879.7619136071858</v>
+        <v>828.449967079728</v>
       </c>
       <c r="C45" t="n">
-        <v>729.107683167278</v>
+        <v>677.7957366398202</v>
       </c>
       <c r="D45" t="n">
-        <v>599.0187157887583</v>
+        <v>547.7067692613006</v>
       </c>
       <c r="E45" t="n">
-        <v>462.572224899646</v>
+        <v>411.2602783721883</v>
       </c>
       <c r="F45" t="n">
-        <v>338.1404187827778</v>
+        <v>286.8284722553201</v>
       </c>
       <c r="G45" t="n">
-        <v>218.4849013259361</v>
+        <v>167.1729547984784</v>
       </c>
       <c r="H45" t="n">
-        <v>134.0921763203489</v>
+        <v>82.78022979289118</v>
       </c>
       <c r="I45" t="n">
-        <v>98.62491662900135</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>98.62491662900135</v>
+        <v>197.8653498069891</v>
       </c>
       <c r="K45" t="n">
-        <v>482.3505379352593</v>
+        <v>581.5909711132471</v>
       </c>
       <c r="L45" t="n">
-        <v>1051.95433622067</v>
+        <v>1151.194769398658</v>
       </c>
       <c r="M45" t="n">
-        <v>1637.452341227272</v>
+        <v>1160.13347078886</v>
       </c>
       <c r="N45" t="n">
-        <v>2222.950346233874</v>
+        <v>1545.5827685073</v>
       </c>
       <c r="O45" t="n">
-        <v>2225.468781888786</v>
+        <v>1548.101204162212</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2029.389877633876</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="R45" t="n">
-        <v>2365.648505077179</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="S45" t="n">
-        <v>2238.227531906564</v>
+        <v>2186.915585379106</v>
       </c>
       <c r="T45" t="n">
-        <v>2062.873334724416</v>
+        <v>2011.561388196958</v>
       </c>
       <c r="U45" t="n">
-        <v>1852.836790118274</v>
+        <v>1801.524843590817</v>
       </c>
       <c r="V45" t="n">
-        <v>1630.296788489341</v>
+        <v>1578.984841961884</v>
       </c>
       <c r="W45" t="n">
-        <v>1400.179542622628</v>
+        <v>1348.86759609517</v>
       </c>
       <c r="X45" t="n">
-        <v>1210.87246497264</v>
+        <v>1159.560518445182</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.558248048147</v>
+        <v>980.2463015206894</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1158.350770937584</v>
+        <v>296.9808771184828</v>
       </c>
       <c r="C46" t="n">
-        <v>1158.350770937584</v>
+        <v>126.775759184472</v>
       </c>
       <c r="D46" t="n">
-        <v>1158.350770937584</v>
+        <v>126.775759184472</v>
       </c>
       <c r="E46" t="n">
-        <v>1158.350770937584</v>
+        <v>126.775759184472</v>
       </c>
       <c r="F46" t="n">
-        <v>1158.350770937584</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>1158.350770937584</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>1158.350770937584</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>1158.350770937584</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>1158.350770937584</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>1278.782200958914</v>
+        <v>167.7444001228733</v>
       </c>
       <c r="L46" t="n">
-        <v>1492.299930367678</v>
+        <v>381.2621295316369</v>
       </c>
       <c r="M46" t="n">
-        <v>1730.666433119014</v>
+        <v>619.6286322829731</v>
       </c>
       <c r="N46" t="n">
-        <v>1964.692766253931</v>
+        <v>853.6549654178906</v>
       </c>
       <c r="O46" t="n">
-        <v>2174.353453076098</v>
+        <v>1063.315652240057</v>
       </c>
       <c r="P46" t="n">
-        <v>2334.408520110666</v>
+        <v>1223.370719274625</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.648505077179</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.648505077179</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.648505077179</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.377702417103</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="U46" t="n">
-        <v>1850.001252881065</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="V46" t="n">
-        <v>1850.001252881065</v>
+        <v>988.6313590619631</v>
       </c>
       <c r="W46" t="n">
-        <v>1566.670850812242</v>
+        <v>705.3009569931407</v>
       </c>
       <c r="X46" t="n">
-        <v>1566.670850812242</v>
+        <v>705.3009569931407</v>
       </c>
       <c r="Y46" t="n">
-        <v>1343.558789628886</v>
+        <v>482.1888958097841</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>470.4637632346373</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.2031950097787</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,10 +8221,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>451.8641826900536</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8467,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8537,22 +8537,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>500.3175139373679</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>66.85930902235421</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L11" t="n">
-        <v>650.168646726111</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M11" t="n">
-        <v>129.9974949147575</v>
+        <v>560.3705118502147</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6891733853207</v>
+        <v>633.6891733853209</v>
       </c>
       <c r="O11" t="n">
-        <v>48.67649131215622</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.83741748749453</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M12" t="n">
-        <v>602.6236718886487</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N12" t="n">
-        <v>560.5201435094316</v>
+        <v>593.4601867308691</v>
       </c>
       <c r="O12" t="n">
-        <v>607.8744558939302</v>
+        <v>456.6069833805835</v>
       </c>
       <c r="P12" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>650.168646726111</v>
+        <v>58.75652045681615</v>
       </c>
       <c r="M14" t="n">
-        <v>44.58488518912007</v>
+        <v>635.9970114584152</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6891733853207</v>
+        <v>633.6891733853209</v>
       </c>
       <c r="O14" t="n">
-        <v>79.64654374191787</v>
+        <v>134.0891010377941</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>79.83741748749453</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>37.86348895248231</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>602.6236718886487</v>
+        <v>268.0458853830933</v>
       </c>
       <c r="N15" t="n">
-        <v>89.62412263096178</v>
+        <v>593.4601867308691</v>
       </c>
       <c r="O15" t="n">
-        <v>607.8744558939301</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62890431745645</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>24.96413205653378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>322.0650736133204</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>370.6145417223631</v>
       </c>
       <c r="P18" t="n">
-        <v>10.651743854399</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.89563864989844</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>69.84060434447252</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>44.62890431745646</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K21" t="n">
-        <v>24.96413205653378</v>
+        <v>24.96413205653383</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>322.0650736133206</v>
       </c>
       <c r="N21" t="n">
-        <v>343.3392781392639</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>10.65174385439902</v>
+        <v>10.65174385439906</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.89563864989844</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R21" t="n">
-        <v>69.84060434447252</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62890431745646</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>24.96413205653378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>3.153566667930477</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>44.01425386869116</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>181.5742900231852</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.89563864989844</v>
+        <v>39.89563864989851</v>
       </c>
       <c r="R24" t="n">
-        <v>69.84060434447252</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987021</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>44.62890431745646</v>
+        <v>44.62890431745649</v>
       </c>
       <c r="K27" t="n">
-        <v>24.96413205653378</v>
+        <v>24.96413205653384</v>
       </c>
       <c r="L27" t="n">
-        <v>414.4258370628137</v>
+        <v>3.153566667930534</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9971,13 +9971,13 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>181.5742900231857</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.89563864989844</v>
+        <v>39.89563864989848</v>
       </c>
       <c r="R27" t="n">
-        <v>69.84060434447252</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>44.62890431745646</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>24.96413205653378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>174.0761128367167</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>10.65174385439902</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.89563864989844</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>69.84060434447252</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>44.62890431745646</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>24.96413205653378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>3.153566667930477</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>181.5742900231852</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.89563864989844</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>69.84060434447252</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>44.62890431745647</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,22 +10673,22 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>84.01268330397021</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.89563864989847</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>69.84060434447254</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018531</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>44.62890431745647</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>24.96413205653381</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>3.153566667930519</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>181.5742900231857</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.89563864989847</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>69.84060434447254</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>54.18758142559202</v>
       </c>
       <c r="K41" t="n">
-        <v>47.89996933021979</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>626.6078443257687</v>
+        <v>612.5000765115675</v>
       </c>
       <c r="M41" t="n">
-        <v>609.7810791074234</v>
+        <v>18.36895283812854</v>
       </c>
       <c r="N41" t="n">
-        <v>607.0490398409768</v>
+        <v>15.63691357168184</v>
       </c>
       <c r="O41" t="n">
-        <v>581.6591325477018</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>42.72677483125931</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.71459949589109</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11144,25 +11144,25 @@
         <v>24.96413205653381</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>518.8400044743664</v>
       </c>
       <c r="M42" t="n">
-        <v>582.3831349660602</v>
+        <v>582.3831349660603</v>
       </c>
       <c r="N42" t="n">
-        <v>25.68963303941685</v>
+        <v>572.6839430235368</v>
       </c>
       <c r="O42" t="n">
-        <v>588.8682518703943</v>
+        <v>588.8682518703946</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>10.65174385439904</v>
       </c>
       <c r="Q42" t="n">
         <v>39.89563864989847</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447254</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.18758142559202</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>146.7589233301871</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>626.6078443257687</v>
+        <v>626.607844325769</v>
       </c>
       <c r="M44" t="n">
-        <v>609.7810791074234</v>
+        <v>509.9277534078543</v>
       </c>
       <c r="N44" t="n">
-        <v>607.0490398409768</v>
+        <v>607.049039840977</v>
       </c>
       <c r="O44" t="n">
         <v>23.52096863148093</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>42.72677483125931</v>
       </c>
       <c r="Q44" t="n">
         <v>63.71459949589109</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>93.13909209400285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>44.62890431745647</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>582.3831349660601</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6839430235366</v>
+        <v>370.614541722363</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>152.2474238426752</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.89563864989847</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>69.84060434447254</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.3917988222726</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,13 +23266,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>314.7099853831353</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.4070525919804</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I13" t="n">
         <v>123.6862121416195</v>
@@ -23472,19 +23472,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>117.2179920516822</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.6175350496171</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>102.8227008390503</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>314.7099853831353</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>222.3948767132302</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5078984565654</v>
+        <v>4.871056354347758</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T16" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.583505865704</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>220.0899440265678</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>90.1893600733971</v>
       </c>
       <c r="C19" t="n">
-        <v>79.54687041753452</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23910,10 +23910,10 @@
         <v>150.9403106068158</v>
       </c>
       <c r="I19" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.350224769714934</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S19" t="n">
         <v>194.9399852654295</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.445182966699178</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H20" t="n">
         <v>313.180957500541</v>
       </c>
       <c r="I20" t="n">
-        <v>108.1134362274253</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.9908812904515</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1353559624811</v>
+        <v>110.2124989635419</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>107.8875517051138</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,10 +24147,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>194.9399852654295</v>
       </c>
       <c r="T22" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.25158231584223</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>313.180957500541</v>
+        <v>13.73783895345622</v>
       </c>
       <c r="I23" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>21.13836537006605</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>17.23264490298021</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714966</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.33879930385737</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>68.6025432224867</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>267.8978383998788</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.5712860732946</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I28" t="n">
         <v>121.6722041362075</v>
       </c>
       <c r="J28" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714956</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>94.82560704173426</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>157.2467558896845</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>313.180957500541</v>
       </c>
       <c r="I29" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U29" t="n">
-        <v>246.7862756471172</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>121.6722041362075</v>
       </c>
       <c r="J31" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714956</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.03392399038599</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>282.5661004360929</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>121.8950358405392</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24906,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>265.360192117109</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>63.45053201327018</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.9908812904515</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,16 +25089,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.0725821612892</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>59.31539557602776</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J34" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714956</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S34" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5661004360929</v>
@@ -25137,7 +25137,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>370.6939751566056</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>313.180957500541</v>
+        <v>204.3105198050198</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>164.0981567372342</v>
       </c>
       <c r="D37" t="n">
-        <v>59.31539557602686</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J37" t="n">
         <v>6.350224769714949</v>
@@ -25365,19 +25365,19 @@
         <v>194.9399852654295</v>
       </c>
       <c r="T37" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5661004360929</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>92.0538354911489</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.445182966699633</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>253.1353559624811</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.9403106068158</v>
+        <v>132.5831767052488</v>
       </c>
       <c r="I40" t="n">
         <v>121.6722041362075</v>
@@ -25599,25 +25599,25 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S40" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V40" t="n">
-        <v>250.2029795654974</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>79.94842983532396</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>253.1353559624811</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>22.13700752946016</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>134.0041374861505</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>121.6722041362075</v>
@@ -25836,10 +25836,10 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S43" t="n">
-        <v>194.9399852654295</v>
+        <v>119.6677175930005</v>
       </c>
       <c r="T43" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5661004360929</v>
@@ -25848,13 +25848,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>408.2830491160485</v>
       </c>
       <c r="H44" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>108.1134362274254</v>
@@ -25918,22 +25918,22 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T44" t="n">
-        <v>194.6914394159857</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1353559624811</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>183.3618254188072</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26034,7 +26034,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>77.08451424705767</v>
       </c>
       <c r="G46" t="n">
         <v>166.2359509470872</v>
@@ -26076,13 +26076,13 @@
         <v>194.9399852654295</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U46" t="n">
-        <v>4.003415395414777</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>590107.2559493234</v>
+        <v>590107.2559493231</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>590107.2559493231</v>
+        <v>590107.2559493233</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752115.0679399354</v>
+        <v>752115.0679399353</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752115.0679399355</v>
+        <v>752115.0679399353</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752115.0679399354</v>
+        <v>752115.0679399353</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>589586.3790161735</v>
+        <v>589586.3790161734</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>589586.3790161734</v>
+        <v>589586.3790161737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450830.4452333919</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333918</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="D2" t="n">
         <v>450830.4452333918</v>
       </c>
       <c r="E2" t="n">
-        <v>290840.1485416618</v>
+        <v>290840.148541662</v>
       </c>
       <c r="F2" t="n">
         <v>290840.1485416619</v>
       </c>
       <c r="G2" t="n">
-        <v>370422.8309898525</v>
+        <v>370422.8309898523</v>
       </c>
       <c r="H2" t="n">
-        <v>370422.8309898522</v>
+        <v>370422.8309898524</v>
       </c>
       <c r="I2" t="n">
-        <v>370422.8309898523</v>
+        <v>370422.8309898524</v>
       </c>
       <c r="J2" t="n">
         <v>370422.8309898524</v>
       </c>
       <c r="K2" t="n">
-        <v>370422.8309898523</v>
+        <v>370422.8309898521</v>
       </c>
       <c r="L2" t="n">
         <v>370422.8309898523</v>
       </c>
       <c r="M2" t="n">
-        <v>370422.8309898524</v>
+        <v>370422.8309898523</v>
       </c>
       <c r="N2" t="n">
-        <v>370422.8309898524</v>
+        <v>370422.8309898521</v>
       </c>
       <c r="O2" t="n">
-        <v>292497.0279714394</v>
+        <v>292497.0279714395</v>
       </c>
       <c r="P2" t="n">
-        <v>292497.0279714394</v>
+        <v>292497.0279714392</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>139499.5045692597</v>
+        <v>139499.5045692595</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656033</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>234467.8177985447</v>
       </c>
       <c r="E4" t="n">
-        <v>67062.51198646669</v>
+        <v>67062.51198646671</v>
       </c>
       <c r="F4" t="n">
         <v>67062.51198646671</v>
       </c>
       <c r="G4" t="n">
+        <v>86013.9375310812</v>
+      </c>
+      <c r="H4" t="n">
         <v>86013.93753108122</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86013.9375310812</v>
       </c>
       <c r="I4" t="n">
         <v>86013.9375310812</v>
       </c>
       <c r="J4" t="n">
-        <v>86013.93753108122</v>
+        <v>86013.9375310812</v>
       </c>
       <c r="K4" t="n">
-        <v>86013.93753108119</v>
+        <v>86013.9375310812</v>
       </c>
       <c r="L4" t="n">
         <v>86013.9375310812</v>
       </c>
       <c r="M4" t="n">
-        <v>86013.93753108122</v>
+        <v>86013.9375310812</v>
       </c>
       <c r="N4" t="n">
-        <v>86013.93753108122</v>
+        <v>86013.9375310812</v>
       </c>
       <c r="O4" t="n">
-        <v>63560.87481054268</v>
+        <v>63560.87481054269</v>
       </c>
       <c r="P4" t="n">
-        <v>63560.87481054267</v>
+        <v>63560.87481054269</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>39204.88033437145</v>
+        <v>39204.88033437146</v>
       </c>
       <c r="F5" t="n">
-        <v>39204.88033437145</v>
+        <v>39204.88033437146</v>
       </c>
       <c r="G5" t="n">
-        <v>64554.27355972818</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="H5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="I5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="J5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="K5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="L5" t="n">
         <v>64554.27355972817</v>
       </c>
       <c r="M5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="N5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="O5" t="n">
-        <v>40014.50181127499</v>
+        <v>40014.501811275</v>
       </c>
       <c r="P5" t="n">
-        <v>40014.50181127499</v>
+        <v>40014.501811275</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51418.63583407074</v>
+        <v>-51418.63583407112</v>
       </c>
       <c r="C6" t="n">
         <v>146777.1701576739</v>
       </c>
       <c r="D6" t="n">
-        <v>146777.170157674</v>
+        <v>146777.1701576739</v>
       </c>
       <c r="E6" t="n">
-        <v>64909.08350420427</v>
+        <v>64269.12231743749</v>
       </c>
       <c r="F6" t="n">
-        <v>184572.7562208237</v>
+        <v>183932.7950340568</v>
       </c>
       <c r="G6" t="n">
-        <v>80355.11532978341</v>
+        <v>80033.48487280922</v>
       </c>
       <c r="H6" t="n">
-        <v>219854.6198990428</v>
+        <v>219532.9894420689</v>
       </c>
       <c r="I6" t="n">
-        <v>219854.6198990429</v>
+        <v>219532.9894420689</v>
       </c>
       <c r="J6" t="n">
-        <v>65115.18553343968</v>
+        <v>64793.55507646544</v>
       </c>
       <c r="K6" t="n">
-        <v>219854.6198990429</v>
+        <v>219532.9894420686</v>
       </c>
       <c r="L6" t="n">
-        <v>219854.6198990429</v>
+        <v>219532.9894420688</v>
       </c>
       <c r="M6" t="n">
-        <v>219854.619899043</v>
+        <v>219532.9894420687</v>
       </c>
       <c r="N6" t="n">
-        <v>219854.619899043</v>
+        <v>219532.9894420686</v>
       </c>
       <c r="O6" t="n">
-        <v>188921.6513496217</v>
+        <v>188288.3176805741</v>
       </c>
       <c r="P6" t="n">
-        <v>188921.6513496217</v>
+        <v>188288.3176805738</v>
       </c>
     </row>
   </sheetData>
@@ -26752,22 +26752,22 @@
         <v>148.9460117980881</v>
       </c>
       <c r="G3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="H3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="I3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560487</v>
       </c>
       <c r="J3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="K3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="L3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="M3" t="n">
         <v>186.0846116560488</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="H4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="I4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="J4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846431</v>
       </c>
       <c r="K4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846431</v>
       </c>
       <c r="L4" t="n">
         <v>995.0267931846433</v>
       </c>
       <c r="M4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="N4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.13859985796083</v>
+        <v>37.13859985796068</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>403.6146669153485</v>
+        <v>403.6146669153482</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692946</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>403.6146669153485</v>
+        <v>403.6146669153482</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>63.31899364781356</v>
+        <v>57.42547885489967</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27390,16 +27390,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.64134822315913</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27557,7 +27557,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.9197383799502</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27627,13 +27627,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>42.38903815732868</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>24.40101722250852</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>260.1686447846453</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>275.7133969512232</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>100.1509894267742</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7480788408283369</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H17" t="n">
-        <v>7.661262428633207</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I17" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J17" t="n">
-        <v>63.49225651675411</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K17" t="n">
-        <v>95.15843384901763</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L17" t="n">
-        <v>118.0524516740179</v>
+        <v>118.0524516740178</v>
       </c>
       <c r="M17" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N17" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O17" t="n">
         <v>126.0428687926155</v>
       </c>
       <c r="P17" t="n">
-        <v>107.574672409666</v>
+        <v>107.5746724096659</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.78409892250112</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R17" t="n">
-        <v>46.99150748518306</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S17" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T17" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4002574665809355</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H18" t="n">
-        <v>3.865644479873772</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I18" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377343</v>
       </c>
       <c r="J18" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K18" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L18" t="n">
-        <v>86.90678018898777</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M18" t="n">
-        <v>101.4161133525467</v>
+        <v>101.4161133525466</v>
       </c>
       <c r="N18" t="n">
-        <v>104.100296099925</v>
+        <v>104.1002960999249</v>
       </c>
       <c r="O18" t="n">
-        <v>95.2314332877895</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P18" t="n">
-        <v>76.43162096491565</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R18" t="n">
-        <v>24.85107323210406</v>
+        <v>24.85107323210404</v>
       </c>
       <c r="S18" t="n">
-        <v>7.434606890220441</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T18" t="n">
-        <v>1.613318472753858</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02633272806453524</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98345492130518</v>
+        <v>2.983454921305178</v>
       </c>
       <c r="I19" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J19" t="n">
-        <v>23.72426270244414</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K19" t="n">
-        <v>38.98625142564434</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L19" t="n">
-        <v>49.8889793282463</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M19" t="n">
-        <v>52.60093375057789</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N19" t="n">
-        <v>51.35020111485694</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O19" t="n">
-        <v>47.43022200046311</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P19" t="n">
-        <v>40.58474874544383</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.09877636006339</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08810638116095</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S19" t="n">
-        <v>5.84793771384665</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T19" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518515</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,28 +32463,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H20" t="n">
-        <v>7.661262428633206</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I20" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J20" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K20" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L20" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M20" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N20" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O20" t="n">
         <v>126.0428687926155</v>
@@ -32493,19 +32493,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R20" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S20" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T20" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H21" t="n">
-        <v>3.865644479873771</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I21" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377343</v>
       </c>
       <c r="J21" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K21" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L21" t="n">
-        <v>86.90678018898775</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M21" t="n">
         <v>101.4161133525466</v>
@@ -32566,25 +32566,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O21" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P21" t="n">
-        <v>76.43162096491564</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R21" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210404</v>
       </c>
       <c r="S21" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T21" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H22" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305178</v>
       </c>
       <c r="I22" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J22" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K22" t="n">
-        <v>38.98625142564433</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L22" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M22" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N22" t="n">
-        <v>51.35020111485694</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O22" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P22" t="n">
-        <v>40.58474874544383</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S22" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T22" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518515</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283359</v>
       </c>
       <c r="H23" t="n">
-        <v>7.661262428633206</v>
+        <v>7.661262428633196</v>
       </c>
       <c r="I23" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103444</v>
       </c>
       <c r="J23" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675403</v>
       </c>
       <c r="K23" t="n">
-        <v>95.15843384901761</v>
+        <v>95.1584338490175</v>
       </c>
       <c r="L23" t="n">
-        <v>118.0524516740178</v>
+        <v>118.0524516740177</v>
       </c>
       <c r="M23" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595986</v>
       </c>
       <c r="N23" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661021</v>
       </c>
       <c r="O23" t="n">
-        <v>126.0428687926155</v>
+        <v>126.0428687926154</v>
       </c>
       <c r="P23" t="n">
-        <v>107.5746724096659</v>
+        <v>107.5746724096658</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.7840989225011</v>
+        <v>80.784098922501</v>
       </c>
       <c r="R23" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518299</v>
       </c>
       <c r="S23" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537572</v>
       </c>
       <c r="T23" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726042</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.05984630726626686</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809349</v>
       </c>
       <c r="H24" t="n">
-        <v>3.865644479873771</v>
+        <v>3.865644479873767</v>
       </c>
       <c r="I24" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377342</v>
       </c>
       <c r="J24" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587684</v>
       </c>
       <c r="K24" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679948</v>
       </c>
       <c r="L24" t="n">
-        <v>86.90678018898775</v>
+        <v>86.90678018898765</v>
       </c>
       <c r="M24" t="n">
-        <v>101.4161133525466</v>
+        <v>101.4161133525465</v>
       </c>
       <c r="N24" t="n">
-        <v>104.1002960999249</v>
+        <v>104.1002960999248</v>
       </c>
       <c r="O24" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778936</v>
       </c>
       <c r="P24" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491555</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601548</v>
       </c>
       <c r="R24" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210402</v>
       </c>
       <c r="S24" t="n">
-        <v>7.43460689022044</v>
+        <v>7.43460689022043</v>
       </c>
       <c r="T24" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753855</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.0263327280645352</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617271</v>
       </c>
       <c r="H25" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305176</v>
       </c>
       <c r="I25" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J25" t="n">
-        <v>23.72426270244413</v>
+        <v>23.7242627024441</v>
       </c>
       <c r="K25" t="n">
-        <v>38.98625142564433</v>
+        <v>38.98625142564428</v>
       </c>
       <c r="L25" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824624</v>
       </c>
       <c r="M25" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057782</v>
       </c>
       <c r="N25" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485687</v>
       </c>
       <c r="O25" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046304</v>
       </c>
       <c r="P25" t="n">
-        <v>40.58474874544383</v>
+        <v>40.58474874544378</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006335</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116092</v>
       </c>
       <c r="S25" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846642</v>
       </c>
       <c r="T25" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972833</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518514</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283362</v>
       </c>
       <c r="H26" t="n">
-        <v>7.661262428633206</v>
+        <v>7.6612624286332</v>
       </c>
       <c r="I26" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J26" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675405</v>
       </c>
       <c r="K26" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901754</v>
       </c>
       <c r="L26" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M26" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N26" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O26" t="n">
-        <v>126.0428687926155</v>
+        <v>126.0428687926154</v>
       </c>
       <c r="P26" t="n">
         <v>107.5746724096659</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250104</v>
       </c>
       <c r="R26" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518301</v>
       </c>
       <c r="S26" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T26" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.05984630726626688</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H27" t="n">
-        <v>3.865644479873771</v>
+        <v>3.865644479873768</v>
       </c>
       <c r="I27" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377342</v>
       </c>
       <c r="J27" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587686</v>
       </c>
       <c r="K27" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679951</v>
       </c>
       <c r="L27" t="n">
-        <v>86.90678018898775</v>
+        <v>86.9067801889877</v>
       </c>
       <c r="M27" t="n">
         <v>101.4161133525466</v>
@@ -33040,25 +33040,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O27" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778941</v>
       </c>
       <c r="P27" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491558</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601551</v>
       </c>
       <c r="R27" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210403</v>
       </c>
       <c r="S27" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220434</v>
       </c>
       <c r="T27" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453521</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617272</v>
       </c>
       <c r="H28" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305177</v>
       </c>
       <c r="I28" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J28" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244411</v>
       </c>
       <c r="K28" t="n">
-        <v>38.98625142564433</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L28" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M28" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N28" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485689</v>
       </c>
       <c r="O28" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046307</v>
       </c>
       <c r="P28" t="n">
-        <v>40.58474874544383</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006336</v>
       </c>
       <c r="R28" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S28" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846645</v>
       </c>
       <c r="T28" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518514</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283362</v>
       </c>
       <c r="H29" t="n">
-        <v>7.661262428633206</v>
+        <v>7.6612624286332</v>
       </c>
       <c r="I29" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J29" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675405</v>
       </c>
       <c r="K29" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901754</v>
       </c>
       <c r="L29" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M29" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N29" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O29" t="n">
-        <v>126.0428687926155</v>
+        <v>126.0428687926154</v>
       </c>
       <c r="P29" t="n">
         <v>107.5746724096659</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250104</v>
       </c>
       <c r="R29" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518301</v>
       </c>
       <c r="S29" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T29" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.05984630726626688</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H30" t="n">
-        <v>3.865644479873771</v>
+        <v>3.865644479873768</v>
       </c>
       <c r="I30" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377342</v>
       </c>
       <c r="J30" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587686</v>
       </c>
       <c r="K30" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679951</v>
       </c>
       <c r="L30" t="n">
-        <v>86.90678018898775</v>
+        <v>86.9067801889877</v>
       </c>
       <c r="M30" t="n">
         <v>101.4161133525466</v>
@@ -33277,25 +33277,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O30" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778941</v>
       </c>
       <c r="P30" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491558</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601551</v>
       </c>
       <c r="R30" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210403</v>
       </c>
       <c r="S30" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220434</v>
       </c>
       <c r="T30" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453521</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617272</v>
       </c>
       <c r="H31" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305177</v>
       </c>
       <c r="I31" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J31" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244411</v>
       </c>
       <c r="K31" t="n">
-        <v>38.98625142564433</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L31" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M31" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N31" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485689</v>
       </c>
       <c r="O31" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046307</v>
       </c>
       <c r="P31" t="n">
-        <v>40.58474874544383</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006336</v>
       </c>
       <c r="R31" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S31" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846645</v>
       </c>
       <c r="T31" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518514</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283362</v>
       </c>
       <c r="H32" t="n">
-        <v>7.661262428633206</v>
+        <v>7.6612624286332</v>
       </c>
       <c r="I32" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J32" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675405</v>
       </c>
       <c r="K32" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901754</v>
       </c>
       <c r="L32" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M32" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N32" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O32" t="n">
-        <v>126.0428687926155</v>
+        <v>126.0428687926154</v>
       </c>
       <c r="P32" t="n">
         <v>107.5746724096659</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250104</v>
       </c>
       <c r="R32" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518301</v>
       </c>
       <c r="S32" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T32" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.05984630726626688</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H33" t="n">
-        <v>3.865644479873771</v>
+        <v>3.865644479873768</v>
       </c>
       <c r="I33" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377342</v>
       </c>
       <c r="J33" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587686</v>
       </c>
       <c r="K33" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679951</v>
       </c>
       <c r="L33" t="n">
-        <v>86.90678018898775</v>
+        <v>86.9067801889877</v>
       </c>
       <c r="M33" t="n">
         <v>101.4161133525466</v>
@@ -33514,25 +33514,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O33" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778941</v>
       </c>
       <c r="P33" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491558</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601551</v>
       </c>
       <c r="R33" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210403</v>
       </c>
       <c r="S33" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220434</v>
       </c>
       <c r="T33" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453521</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617272</v>
       </c>
       <c r="H34" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305177</v>
       </c>
       <c r="I34" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J34" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244411</v>
       </c>
       <c r="K34" t="n">
-        <v>38.98625142564433</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L34" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M34" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N34" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485689</v>
       </c>
       <c r="O34" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046307</v>
       </c>
       <c r="P34" t="n">
-        <v>40.58474874544383</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006336</v>
       </c>
       <c r="R34" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S34" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846645</v>
       </c>
       <c r="T34" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518514</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>327.4053600553999</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.2150418538647</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>298.6160129595619</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35187,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>414.9454010832013</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>196.9314106460809</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>438.7752394197637</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>85.41260972563742</v>
+        <v>515.7856266610946</v>
       </c>
       <c r="N11" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P11" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L12" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>558.4720830478577</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
-        <v>591.4121262692948</v>
+        <v>440.1446537559482</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K14" t="n">
         <v>438.7752394197637</v>
       </c>
       <c r="L14" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N14" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O14" t="n">
-        <v>30.97005242976166</v>
+        <v>85.41260972563789</v>
       </c>
       <c r="P14" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.3739679419568</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>256.8343397637394</v>
       </c>
       <c r="N15" t="n">
-        <v>87.57606216938781</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K17" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L17" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422288</v>
       </c>
       <c r="M17" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N17" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O17" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P17" t="n">
         <v>459.2792099162536</v>
       </c>
       <c r="Q17" t="n">
-        <v>267.4967859335603</v>
+        <v>267.4967859335602</v>
       </c>
       <c r="R17" t="n">
-        <v>9.378522907849778</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L18" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M18" t="n">
-        <v>331.0940649165551</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N18" t="n">
-        <v>766.5022872217019</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9690924705986</v>
+        <v>373.1584161212637</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L19" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M19" t="n">
         <v>240.7742452033698</v>
@@ -36056,13 +36056,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O19" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P19" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K20" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L20" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422288</v>
       </c>
       <c r="M20" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N20" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O20" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P20" t="n">
         <v>459.2792099162536</v>
@@ -36144,7 +36144,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R20" t="n">
-        <v>9.378522907849771</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>575.3573720054658</v>
       </c>
       <c r="M21" t="n">
-        <v>735.5288907532347</v>
+        <v>331.0940649165552</v>
       </c>
       <c r="N21" t="n">
-        <v>362.0674613850221</v>
+        <v>766.5022872217017</v>
       </c>
       <c r="O21" t="n">
-        <v>616.9690924705986</v>
+        <v>616.9690924705985</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L22" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M22" t="n">
         <v>240.7742452033698</v>
@@ -36293,13 +36293,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O22" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P22" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K23" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807971</v>
       </c>
       <c r="L23" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422286</v>
       </c>
       <c r="M23" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106901</v>
       </c>
       <c r="N23" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110132</v>
       </c>
       <c r="O23" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384016</v>
       </c>
       <c r="P23" t="n">
-        <v>459.2792099162536</v>
+        <v>459.2792099162535</v>
       </c>
       <c r="Q23" t="n">
-        <v>267.4967859335602</v>
+        <v>267.4967859335601</v>
       </c>
       <c r="R23" t="n">
-        <v>9.378522907849771</v>
+        <v>9.378522907849714</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>575.3573720054657</v>
       </c>
       <c r="M24" t="n">
-        <v>735.5288907532347</v>
+        <v>53.04324517192577</v>
       </c>
       <c r="N24" t="n">
-        <v>766.5022872217019</v>
+        <v>18.72818324575816</v>
       </c>
       <c r="O24" t="n">
-        <v>616.9690924705986</v>
+        <v>616.9690924705985</v>
       </c>
       <c r="P24" t="n">
-        <v>170.9225461687862</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L25" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M25" t="n">
         <v>240.7742452033698</v>
@@ -36530,13 +36530,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O25" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P25" t="n">
-        <v>161.671784883402</v>
+        <v>161.6717848834019</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021583</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K26" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L26" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422281</v>
       </c>
       <c r="M26" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N26" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O26" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P26" t="n">
         <v>459.2792099162536</v>
@@ -36618,7 +36618,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R26" t="n">
-        <v>9.378522907849771</v>
+        <v>9.378522907849735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>411.2722703948833</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>9.028991303234733</v>
+        <v>735.5288907532346</v>
       </c>
       <c r="N27" t="n">
-        <v>766.5022872217019</v>
+        <v>766.5022872217017</v>
       </c>
       <c r="O27" t="n">
-        <v>616.9690924705986</v>
+        <v>616.9690924705985</v>
       </c>
       <c r="P27" t="n">
-        <v>486.1501752239029</v>
+        <v>170.9225461687867</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L28" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M28" t="n">
         <v>240.7742452033698</v>
@@ -36767,13 +36767,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O28" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P28" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021584</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K29" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L29" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422288</v>
       </c>
       <c r="M29" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N29" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O29" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P29" t="n">
         <v>459.2792099162536</v>
@@ -36855,7 +36855,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R29" t="n">
-        <v>9.378522907849771</v>
+        <v>9.378522907849735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L30" t="n">
-        <v>170.9225461687862</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M30" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234648</v>
       </c>
       <c r="N30" t="n">
-        <v>766.5022872217019</v>
+        <v>388.1695244069334</v>
       </c>
       <c r="O30" t="n">
-        <v>616.9690924705986</v>
+        <v>2.543874398900527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.173200561187929</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L31" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M31" t="n">
         <v>240.7742452033698</v>
@@ -37004,13 +37004,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O31" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P31" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021584</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K32" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L32" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422288</v>
       </c>
       <c r="M32" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N32" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O32" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P32" t="n">
         <v>459.2792099162536</v>
@@ -37092,7 +37092,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R32" t="n">
-        <v>9.378522907849771</v>
+        <v>9.378522907849735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M33" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234648</v>
       </c>
       <c r="N33" t="n">
-        <v>766.5022872217019</v>
+        <v>388.1695244069334</v>
       </c>
       <c r="O33" t="n">
-        <v>616.9690924705986</v>
+        <v>2.543874398900527</v>
       </c>
       <c r="P33" t="n">
-        <v>170.9225461687862</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.173200561187929</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L34" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M34" t="n">
         <v>240.7742452033698</v>
@@ -37241,13 +37241,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O34" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P34" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021584</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K36" t="n">
         <v>387.6016376830888</v>
@@ -37393,22 +37393,22 @@
         <v>575.3573720054658</v>
       </c>
       <c r="M36" t="n">
-        <v>735.5288907532347</v>
+        <v>378.4703324644099</v>
       </c>
       <c r="N36" t="n">
         <v>18.72818324575825</v>
       </c>
       <c r="O36" t="n">
-        <v>86.55655770287076</v>
+        <v>2.543874398900556</v>
       </c>
       <c r="P36" t="n">
         <v>486.1501752239029</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.173200561187937</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>682.8721594106902</v>
       </c>
       <c r="N38" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110136</v>
       </c>
       <c r="O38" t="n">
         <v>570.5273141384017</v>
@@ -37566,7 +37566,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R38" t="n">
-        <v>9.378522907850265</v>
+        <v>9.378522907849749</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M39" t="n">
-        <v>735.5288907532347</v>
+        <v>378.4703324644099</v>
       </c>
       <c r="N39" t="n">
-        <v>766.5022872217017</v>
+        <v>18.72818324575825</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9690924705985</v>
+        <v>2.543874398900556</v>
       </c>
       <c r="P39" t="n">
-        <v>170.9225461687867</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.173200561187937</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L41" t="n">
-        <v>591.4121262692948</v>
+        <v>577.3043584550936</v>
       </c>
       <c r="M41" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>558.1381639162208</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>459.2792099162536</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>267.4967859335602</v>
       </c>
       <c r="R41" t="n">
         <v>9.378522907849749</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>575.3573720054658</v>
+        <v>515.6864378064359</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>44.41781628517509</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P42" t="n">
-        <v>486.1501752239029</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.173200561187937</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>209.6031382428431</v>
       </c>
       <c r="K44" t="n">
-        <v>98.85895399996727</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L44" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M44" t="n">
-        <v>591.4121262692948</v>
+        <v>491.5588005697258</v>
       </c>
       <c r="N44" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>459.2792099162536</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.378522907849749</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K45" t="n">
         <v>387.6016376830888</v>
@@ -38104,19 +38104,19 @@
         <v>575.3573720054658</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>9.028991303234676</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>389.3427249681212</v>
       </c>
       <c r="O45" t="n">
         <v>2.543874398900556</v>
       </c>
       <c r="P45" t="n">
-        <v>141.5956799882761</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
